--- a/dataset/processed/Ignored/Ignore Member Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Member Data.xlsx
@@ -614,13 +614,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -663,7 +663,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -721,13 +721,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -770,7 +770,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Agri Diploma</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -828,13 +828,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-NBL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -877,7 +877,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Alim</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -935,13 +935,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-NBL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-004</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -984,7 +984,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>B.Com</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1042,13 +1042,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>SHED</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1091,7 +1091,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>B.Sc</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1149,13 +1149,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-M</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1198,7 +1198,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1256,13 +1256,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>JAGO-W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1305,7 +1305,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HSC</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1363,13 +1363,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>JAGO-M</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1412,7 +1412,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Illiterate</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-004</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1519,7 +1519,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>JSC</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1577,13 +1577,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M.A</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1684,13 +1684,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-NBL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1733,7 +1733,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M.Com</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1791,13 +1791,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-NBL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1840,7 +1840,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M.Sc</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1898,13 +1898,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>SHED</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-004</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1947,7 +1947,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve">MBA </t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2005,13 +2005,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RMC-M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2054,7 +2054,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PSC</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2112,13 +2112,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-M-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2161,7 +2161,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>SSC</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2219,13 +2219,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-M-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2268,7 +2268,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MSS</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">

--- a/dataset/processed/Ignored/Ignore Member Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Member Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,13 +614,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RMC-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>222-001</t>
+          <t>222-001 - samity1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -663,24 +663,12 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ACA</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -703,7 +691,7 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -727,7 +715,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>222-002</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -737,7 +725,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1972-06-22</t>
+          <t>1975-06-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -770,24 +758,12 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Agri Diploma</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>JSC</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -810,7 +786,7 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -828,13 +804,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RMC-NBL</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>222-003</t>
+          <t>222-003 - samity3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -844,7 +820,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1971-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -877,24 +853,12 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Alim</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>SSC</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -917,7 +881,7 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -935,13 +899,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ME-NBL</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>222-004</t>
+          <t>222-004 - samity4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -951,7 +915,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1971-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -984,24 +948,12 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>B.Com</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>HSC</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -1024,7 +976,7 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -1042,13 +994,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SHED</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>222-001</t>
+          <t>222-001 - samity1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1058,7 +1010,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1972-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1091,24 +1043,12 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>B.Sc</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -1131,7 +1071,7 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -1149,13 +1089,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RMC-M</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>222-002</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1198,24 +1138,12 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>B.Com</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1238,46 +1166,46 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alamgir</t>
+          <t>Amir Hossen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2006-12-26</t>
+          <t>2014-01-14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JAGO-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>222-002</t>
+          <t>222-001 - samity1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1977-06-22</t>
+          <t>1985-06-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>001-001-010</t>
+          <t>001-001-009</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1293,39 +1221,39 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Md.Ali Akber</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>Fakir Ahammed</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sufia Begum</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MD.Eddres</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>HSC</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1338,38 +1266,42 @@
           <t>C</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1811364018</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Santu Datto</t>
+          <t>Alamgir</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2008-09-21</t>
+          <t>2006-12-26</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JAGO-M</t>
+          <t>RMC-W</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>222-003</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1384,7 +1316,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>001-001-011</t>
+          <t>001-001-010</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1400,7 +1332,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Ronjit Datto</t>
+          <t>Md.Ali Akber</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1412,24 +1344,12 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Illiterate</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>BSS</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1452,46 +1372,46 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Milon Roddro</t>
+          <t>Santu Datto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2011-05-22</t>
+          <t>2008-09-21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RMC-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>222-004</t>
+          <t>222-001 - samity1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1975-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>001-001-012</t>
+          <t>001-001-011</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1507,7 +1427,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Monindro Roddro</t>
+          <t>Ronjit Datto</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1519,24 +1439,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>JSC</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>B.Sc</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -1559,20 +1467,20 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lotfor Rahaman</t>
+          <t>Milon Roddro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2011-05-22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1583,7 +1491,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>222-001</t>
+          <t>222-001 - samity2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1598,7 +1506,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>001-001-013</t>
+          <t>001-001-012</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1614,7 +1522,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Norul Islam</t>
+          <t>Monindro Roddro</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1624,26 +1532,10 @@
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>M.A</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1666,46 +1558,46 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shukumar</t>
+          <t>Lotfor Rahaman</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2009-03-02</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RMC-NBL</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>222-002</t>
+          <t>222-001 - samity3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1972-06-22</t>
+          <t>1975-06-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>001-001-014</t>
+          <t>001-001-013</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1721,7 +1613,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bantu Dey</t>
+          <t>Norul Islam</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1733,24 +1625,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>M.Com</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">MBA </t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1773,46 +1653,46 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Abul Kasem</t>
+          <t>Shukumar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2009-03-02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ME-NBL</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>222-003</t>
+          <t>222-001 - samity4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1977-06-22</t>
+          <t>1972-06-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>001-001-015</t>
+          <t>001-001-014</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1828,7 +1708,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Norul Kabir</t>
+          <t>Bantu Dey</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1840,24 +1720,12 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>M.Sc</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Graduate</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1880,46 +1748,46 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Md. Azad</t>
+          <t>Abul Kasem</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SHED</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>222-004</t>
+          <t>222-001 - samity4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1969-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>001-001-016</t>
+          <t>001-001-015</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1935,7 +1803,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Mokaru Mia</t>
+          <t>Norul Kabir</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1947,24 +1815,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">MBA </t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Agri Diploma</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -1987,46 +1843,46 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Md. Farid</t>
+          <t>Md. Azad</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2011-08-02</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RMC-M</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>222-001</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1975-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>001-001-017</t>
+          <t>001-001-016</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2042,7 +1898,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Norul Kabir</t>
+          <t>Mokaru Mia</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2054,24 +1910,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>PSC</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>M.A</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -2094,46 +1938,46 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Didarul Khan</t>
+          <t>Md. Farid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2010-11-23</t>
+          <t>2011-08-02</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ME-M-12</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>222-002</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1977-06-22</t>
+          <t>1975-06-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>001-001-018</t>
+          <t>001-001-017</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2149,7 +1993,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Norul Islam</t>
+          <t>Norul Kabir</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2161,24 +2005,12 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>SSC</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>M.Com</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -2201,46 +2033,46 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shek Neshar</t>
+          <t>Didarul Khan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2012-05-08</t>
+          <t>2010-11-23</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ME-M-24</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>222-003</t>
+          <t>222-002 - samity2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1979-06-22</t>
+          <t>1977-06-22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>001-001-019</t>
+          <t>001-001-018</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2256,7 +2088,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Shek Rahim</t>
+          <t>Norul Islam</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2266,26 +2098,10 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>MSS</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -2308,7 +2124,696 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name</t>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shek Neshar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2012-05-08</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ME-W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>222-002 - samity2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1979-06-22</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>001-001-019</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Shek Rahim</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>M.Sc</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shahajahan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2015-02-19</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ME-W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1984-05-25</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>001-001-020</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Rafiqe Ahammed</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Monuara Begum</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Mamunur Rashed</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>1823421392</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Liza Pal</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2009-07-13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1982-06-22</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>001-005-004</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Chandan Pal</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Alim</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Father Name, Mother Name, Mobile Number; ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rino Pal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2010-06-10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1987-06-22</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>001-005-006</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Shantose Pal</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Kamil</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Father Name, Mother Name, Mobile Number; ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jali Pal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2011-02-28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ME-W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1988-01-24</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>001-005-007</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Raju Paul</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Aonjana</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Raju Pal</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Literate</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>1814798479</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kumkum Pal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2011-03-28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1987-06-22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>001-005-009</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Dilip Pal</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Father Name, Mother Name, Mobile Number; ID/Card details</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tompa Pal</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2015-07-15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1989-06-22</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>001-005-010</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Sujan Pal</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Father Name, Mother Name, Mobile Number; ID/Card details</t>
         </is>
       </c>
     </row>

--- a/dataset/processed/Ignored/Ignore Member Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Member Data.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>001-001-001</t>
+          <t>994</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>001-001-002</t>
+          <t>999</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>001-001-003</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>001-001-004</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>001-001-005</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>001-001-006</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>001-001-009</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>001-001-010</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>001-001-011</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>001-001-012</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>001-001-013</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>001-001-014</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>001-001-015</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>001-001-016</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>001-001-017</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>001-001-018</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>001-001-019</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>001-001-020</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>001-005-004</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>001-005-006</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>001-005-007</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>001-005-009</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>001-005-010</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/dataset/processed/Ignored/Ignore Member Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Member Data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Member Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Samity Name</t>
+          <t>Samity Code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Samity Code</t>
+          <t>System Generated Samity Information</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -617,10 +617,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -679,11 +683,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -712,12 +712,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>45</t>
@@ -774,11 +774,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -786,7 +782,7 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -807,10 +803,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -869,11 +869,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -902,10 +898,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>222-004</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>222-004 - samity4</t>
+          <t>222-009 - Golap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -964,11 +964,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -997,10 +993,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1059,11 +1059,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
@@ -1092,12 +1088,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>42</t>
@@ -1154,11 +1150,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
@@ -1166,7 +1158,7 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -1187,10 +1179,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1261,11 +1257,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
           <t>1811364018</t>
@@ -1298,12 +1290,12 @@
           <t>RMC-W</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>40</t>
@@ -1360,11 +1352,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1372,7 +1360,7 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -1393,10 +1381,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1455,11 +1447,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -1488,10 +1476,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>222-001 - samity2</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1546,11 +1538,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1579,10 +1567,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>222-001 - samity3</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1641,11 +1633,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
@@ -1674,10 +1662,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>222-001 - samity4</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1736,11 +1728,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
@@ -1769,10 +1757,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>222-001 - samity4</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1831,11 +1823,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
@@ -1864,12 +1852,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>48</t>
@@ -1926,11 +1914,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
@@ -1938,7 +1922,7 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1943,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>42</t>
@@ -2021,11 +2005,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
@@ -2033,7 +2013,7 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2034,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>40</t>
@@ -2112,11 +2092,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -2124,7 +2100,7 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -2145,12 +2121,12 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>222-002 - samity2</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>222-002</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>38</t>
@@ -2207,11 +2183,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
@@ -2219,7 +2191,7 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
+          <t>System Generated Samity Information, Mother Name, Mobile Number; Spouse Name; ID/Card details</t>
         </is>
       </c>
     </row>
@@ -2240,10 +2212,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2314,11 +2290,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
           <t>1823421392</t>
@@ -2351,10 +2323,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2413,11 +2389,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
@@ -2446,10 +2418,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2508,11 +2484,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
@@ -2541,10 +2513,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2615,11 +2591,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
           <t>1814798479</t>
@@ -2652,10 +2624,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2710,11 +2686,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -2743,10 +2715,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2801,11 +2777,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
